--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/loc_hierarchy_list.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/loc_hierarchy_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,112 +436,238 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>hierarchyLevel</t>
+          <t>lang_code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>hierarchyLevelName</t>
+          <t>hierarchy_level</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>hierarchy_level_name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Région</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>District</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ville</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B12" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Postal Code</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>code postal</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
         <v>1</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/loc_hierarchy_list.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/loc_hierarchy_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,114 +434,276 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>hierarchyLevel</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>hierarchyLevelName</t>
+          <t>lang_code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>hierarchy_level</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>hierarchy_level_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Région</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>District</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ville</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C12" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Postal Code</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>eng</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>code postal</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
         <v>1</v>
       </c>
     </row>
